--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -111,7 +111,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(C3+0)]</t>
+    <t>$[SUMPRODUCT(C3:C3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -119,8 +119,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -223,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,14 +240,20 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,17 +569,17 @@
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -581,7 +588,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -595,7 +602,7 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -607,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>

--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>李文彬</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,14 +45,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="D3")</t>
@@ -87,10 +91,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>门店费用明细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>费用代码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <t>$[SUMPRODUCT(C3:C3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店运营费用明细</t>
+    <rPh sb="2" eb="3">
+      <t>yun'y</t>
+    </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +130,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +180,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -246,13 +246,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -260,7 +260,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,34 +562,34 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -597,12 +597,12 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -614,8 +614,8 @@
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -636,7 +636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -650,7 +650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>李文彬</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1">
+    <comment ref="A3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>门店运营费用明细</t>
+    <t>${titleName}明细</t>
     <rPh sb="2" eb="3">
       <t>yun'y</t>
     </rPh>
@@ -261,6 +261,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -280,7 +348,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -562,15 +630,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -581,7 +649,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -636,7 +704,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -650,7 +718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -91,18 +91,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>费用代码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.costTypeCode}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -119,6 +107,18 @@
     <rPh sb="2" eb="3">
       <t>yun'y</t>
     </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${header}代码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${header}名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${header}金额</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -261,74 +261,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -348,7 +280,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -630,7 +562,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -651,13 +583,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -665,10 +597,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>1</v>
@@ -683,7 +615,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3"/>
     </row>

--- a/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeMainExportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,6 +264,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -280,7 +351,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -562,7 +633,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,7 +667,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
